--- a/database/industries/ghaza/ghezar/cost/yearly.xlsx
+++ b/database/industries/ghaza/ghezar/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghezar\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghezar\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EF8398-468D-4352-93F4-D5B80F3AE857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42209891-2EAE-4DFE-A9A7-8A8653257F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="54">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -49,60 +46,63 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
+    <t>دستمزد مستقیم تولید</t>
+  </si>
+  <si>
+    <t>سربار تولید</t>
+  </si>
+  <si>
+    <t>جمع</t>
+  </si>
+  <si>
+    <t>هزینه جذب نشده در تولید</t>
+  </si>
+  <si>
+    <t>جمع هزینه های تولید</t>
+  </si>
+  <si>
+    <t>خالص موجودی کالای درجریان ساخت</t>
+  </si>
+  <si>
+    <t>ضایعات غیرعادی</t>
+  </si>
+  <si>
+    <t>بهای تمام شده کالای تولید شده</t>
+  </si>
+  <si>
+    <t>موجودی کالای ساخته شده اول دوره</t>
+  </si>
+  <si>
+    <t>موجودی کالای ساخته شده پایان دوره</t>
+  </si>
+  <si>
+    <t>بهای تمام شده کالای فروش رفته</t>
+  </si>
+  <si>
+    <t>بهای تمام شده خدمات ارایه شده</t>
+  </si>
+  <si>
+    <t>جمع بهای تمام شده</t>
+  </si>
+  <si>
+    <t>مقدار موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>آرد</t>
+  </si>
+  <si>
+    <t>کیلوگرم</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>دستمزد مستقیم تولید</t>
-  </si>
-  <si>
-    <t>سربار تولید</t>
-  </si>
-  <si>
-    <t>جمع</t>
-  </si>
-  <si>
-    <t>هزینه جذب نشده در تولید</t>
-  </si>
-  <si>
-    <t>جمع هزینه های تولید</t>
-  </si>
-  <si>
-    <t>خالص موجودی کالای درجریان ساخت</t>
-  </si>
-  <si>
-    <t>ضایعات غیرعادی</t>
-  </si>
-  <si>
-    <t>بهای تمام شده کالای تولید شده</t>
-  </si>
-  <si>
-    <t>موجودی کالای ساخته شده اول دوره</t>
-  </si>
-  <si>
-    <t>موجودی کالای ساخته شده پایان دوره</t>
-  </si>
-  <si>
-    <t>بهای تمام شده کالای فروش رفته</t>
-  </si>
-  <si>
-    <t>بهای تمام شده خدمات ارایه شده</t>
-  </si>
-  <si>
-    <t>جمع بهای تمام شده</t>
-  </si>
-  <si>
-    <t>مقدار موجودی اول دوره</t>
-  </si>
-  <si>
-    <t>آرد</t>
-  </si>
-  <si>
-    <t>کیلوگرم</t>
-  </si>
-  <si>
     <t>سایر</t>
   </si>
   <si>
@@ -139,10 +139,10 @@
     <t>کیلوگرم / ریال</t>
   </si>
   <si>
+    <t>تن / ریال</t>
+  </si>
+  <si>
     <t>نرخ خرید طی دوره</t>
-  </si>
-  <si>
-    <t>تن / ریال</t>
   </si>
   <si>
     <t>نرخ مصرف طی دوره</t>
@@ -637,16 +637,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I129"/>
+  <dimension ref="B1:I131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -656,7 +656,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -668,7 +668,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -680,7 +680,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -690,7 +690,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -702,7 +702,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -714,7 +714,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -724,7 +724,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -746,7 +746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -756,102 +756,102 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="9">
+        <v>2256460</v>
+      </c>
+      <c r="F10" s="9">
+        <v>5105694</v>
+      </c>
+      <c r="G10" s="9">
+        <v>9258883</v>
+      </c>
+      <c r="H10" s="9">
+        <v>13666841</v>
+      </c>
+      <c r="I10" s="9">
+        <v>33973334</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="F10" s="9">
-        <v>2256460</v>
-      </c>
-      <c r="G10" s="9">
-        <v>5105694</v>
-      </c>
-      <c r="H10" s="9">
-        <v>9258883</v>
-      </c>
-      <c r="I10" s="9">
-        <v>13666841</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>11</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
-        <v>10</v>
+      <c r="E11" s="11">
+        <v>90874</v>
       </c>
       <c r="F11" s="11">
-        <v>90874</v>
+        <v>186934</v>
       </c>
       <c r="G11" s="11">
-        <v>186934</v>
+        <v>247569</v>
       </c>
       <c r="H11" s="11">
-        <v>247569</v>
+        <v>402395</v>
       </c>
       <c r="I11" s="11">
-        <v>402395</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>561082</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
-        <v>10</v>
+      <c r="E12" s="9">
+        <v>327320</v>
       </c>
       <c r="F12" s="9">
-        <v>327320</v>
+        <v>466441</v>
       </c>
       <c r="G12" s="9">
-        <v>466441</v>
+        <v>550836</v>
       </c>
       <c r="H12" s="9">
-        <v>550836</v>
+        <v>953996</v>
       </c>
       <c r="I12" s="9">
-        <v>953996</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1393073</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="13" t="s">
-        <v>10</v>
+      <c r="E13" s="13">
+        <v>2674654</v>
       </c>
       <c r="F13" s="13">
-        <v>2674654</v>
+        <v>5759069</v>
       </c>
       <c r="G13" s="13">
-        <v>5759069</v>
+        <v>10057288</v>
       </c>
       <c r="H13" s="13">
-        <v>10057288</v>
+        <v>15023232</v>
       </c>
       <c r="I13" s="13">
-        <v>15023232</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>35927489</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
-        <v>10</v>
+      <c r="E14" s="9">
+        <v>0</v>
       </c>
       <c r="F14" s="9">
         <v>0</v>
@@ -863,39 +863,39 @@
         <v>0</v>
       </c>
       <c r="I14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-111883</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="13" t="s">
-        <v>10</v>
+      <c r="E15" s="13">
+        <v>2674654</v>
       </c>
       <c r="F15" s="13">
-        <v>2674654</v>
+        <v>5759069</v>
       </c>
       <c r="G15" s="13">
-        <v>5759069</v>
+        <v>10057288</v>
       </c>
       <c r="H15" s="13">
-        <v>10057288</v>
+        <v>15023232</v>
       </c>
       <c r="I15" s="13">
-        <v>15023232</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>35815606</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
-        <v>10</v>
+      <c r="E16" s="9">
+        <v>0</v>
       </c>
       <c r="F16" s="9">
         <v>0</v>
@@ -904,20 +904,20 @@
         <v>0</v>
       </c>
       <c r="H16" s="9">
-        <v>0</v>
+        <v>-73091</v>
       </c>
       <c r="I16" s="9">
-        <v>-73091</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-78529</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
-        <v>10</v>
+      <c r="E17" s="11">
+        <v>0</v>
       </c>
       <c r="F17" s="11">
         <v>0</v>
@@ -932,139 +932,139 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="15" t="s">
-        <v>10</v>
+      <c r="E18" s="15">
+        <v>2674654</v>
       </c>
       <c r="F18" s="15">
-        <v>2674654</v>
+        <v>5759069</v>
       </c>
       <c r="G18" s="15">
-        <v>5759069</v>
+        <v>10057288</v>
       </c>
       <c r="H18" s="15">
-        <v>10057288</v>
+        <v>14950141</v>
       </c>
       <c r="I18" s="15">
-        <v>14950141</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>35737077</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
-        <v>10</v>
+      <c r="E19" s="11">
+        <v>43784</v>
       </c>
       <c r="F19" s="11">
-        <v>43784</v>
+        <v>23878</v>
       </c>
       <c r="G19" s="11">
-        <v>23878</v>
+        <v>85640</v>
       </c>
       <c r="H19" s="11">
-        <v>85640</v>
+        <v>583010</v>
       </c>
       <c r="I19" s="11">
-        <v>583010</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>260004</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
-        <v>10</v>
+      <c r="E20" s="9">
+        <v>-58886</v>
       </c>
       <c r="F20" s="9">
-        <v>-58886</v>
+        <v>-110003</v>
       </c>
       <c r="G20" s="9">
-        <v>-110003</v>
+        <v>-584843</v>
       </c>
       <c r="H20" s="9">
-        <v>-584843</v>
+        <v>-260004</v>
       </c>
       <c r="I20" s="9">
-        <v>-260004</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-726874</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="13" t="s">
-        <v>10</v>
+      <c r="E21" s="13">
+        <v>2659552</v>
       </c>
       <c r="F21" s="13">
-        <v>2659552</v>
+        <v>5672944</v>
       </c>
       <c r="G21" s="13">
-        <v>5672944</v>
+        <v>9558085</v>
       </c>
       <c r="H21" s="13">
-        <v>9558085</v>
+        <v>15273147</v>
       </c>
       <c r="I21" s="13">
-        <v>15273147</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>35270207</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
-        <v>10</v>
+      <c r="E22" s="9">
+        <v>0</v>
       </c>
       <c r="F22" s="9">
         <v>0</v>
       </c>
       <c r="G22" s="9">
-        <v>0</v>
+        <v>961258</v>
       </c>
       <c r="H22" s="9">
-        <v>961258</v>
+        <v>0</v>
       </c>
       <c r="I22" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="13" t="s">
-        <v>10</v>
+      <c r="E23" s="13">
+        <v>2659552</v>
       </c>
       <c r="F23" s="13">
-        <v>2659552</v>
+        <v>5672944</v>
       </c>
       <c r="G23" s="13">
-        <v>5672944</v>
+        <v>10519343</v>
       </c>
       <c r="H23" s="13">
-        <v>10519343</v>
+        <v>15273147</v>
       </c>
       <c r="I23" s="13">
-        <v>15273147</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>35270207</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1074,7 +1074,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1084,7 +1084,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1094,9 +1094,9 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1116,7 +1116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1126,31 +1126,31 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="F29" s="9">
+        <v>32200</v>
       </c>
       <c r="G29" s="9">
-        <v>32200</v>
+        <v>550336</v>
       </c>
       <c r="H29" s="9">
-        <v>550336</v>
+        <v>0</v>
       </c>
       <c r="I29" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1159,10 +1159,10 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="F30" s="11">
+        <v>0</v>
       </c>
       <c r="G30" s="11">
         <v>0</v>
@@ -1171,12 +1171,12 @@
         <v>0</v>
       </c>
       <c r="I30" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8646</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="F31" s="15">
-        <v>0</v>
+        <v>32200</v>
       </c>
       <c r="G31" s="15">
-        <v>32200</v>
+        <v>550336</v>
       </c>
       <c r="H31" s="15">
-        <v>550336</v>
+        <v>0</v>
       </c>
       <c r="I31" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8646</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1206,7 +1206,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1216,7 +1216,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1226,7 +1226,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>29</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1258,31 +1258,31 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="F37" s="9">
+        <v>192905616</v>
       </c>
       <c r="G37" s="9">
-        <v>192905616</v>
+        <v>231265233</v>
       </c>
       <c r="H37" s="9">
-        <v>231265233</v>
+        <v>240162</v>
       </c>
       <c r="I37" s="9">
-        <v>240162</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>176186527</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>27</v>
       </c>
@@ -1291,10 +1291,10 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="F38" s="11">
+        <v>1</v>
       </c>
       <c r="G38" s="11">
         <v>1</v>
@@ -1303,12 +1303,12 @@
         <v>1</v>
       </c>
       <c r="I38" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>42491</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
@@ -1316,19 +1316,19 @@
         <v>0</v>
       </c>
       <c r="F39" s="15">
-        <v>0</v>
+        <v>192905617</v>
       </c>
       <c r="G39" s="15">
-        <v>192905617</v>
+        <v>231265234</v>
       </c>
       <c r="H39" s="15">
-        <v>231265234</v>
+        <v>240163</v>
       </c>
       <c r="I39" s="15">
-        <v>240163</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>176229018</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1338,7 +1338,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1348,7 +1348,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1358,7 +1358,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>30</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1390,31 +1390,31 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="F45" s="9">
+        <v>192387480</v>
       </c>
       <c r="G45" s="9">
-        <v>192387480</v>
+        <v>231815569</v>
       </c>
       <c r="H45" s="9">
-        <v>231815569</v>
+        <v>240162</v>
       </c>
       <c r="I45" s="9">
-        <v>240162</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>176186527</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>27</v>
       </c>
@@ -1423,10 +1423,10 @@
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="F46" s="11">
+        <v>1</v>
       </c>
       <c r="G46" s="11">
         <v>1</v>
@@ -1435,12 +1435,12 @@
         <v>1</v>
       </c>
       <c r="I46" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>41815</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -1448,19 +1448,19 @@
         <v>0</v>
       </c>
       <c r="F47" s="15">
-        <v>0</v>
+        <v>192387481</v>
       </c>
       <c r="G47" s="15">
-        <v>192387481</v>
+        <v>231815570</v>
       </c>
       <c r="H47" s="15">
-        <v>231815570</v>
+        <v>240163</v>
       </c>
       <c r="I47" s="15">
-        <v>240163</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>176228342</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1470,7 +1470,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1480,7 +1480,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1490,7 +1490,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>31</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1522,22 +1522,22 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="F53" s="9">
+        <v>550336</v>
       </c>
       <c r="G53" s="9">
-        <v>550336</v>
+        <v>0</v>
       </c>
       <c r="H53" s="9">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>27</v>
       </c>
@@ -1555,10 +1555,10 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0</v>
       </c>
       <c r="G54" s="11">
         <v>0</v>
@@ -1567,12 +1567,12 @@
         <v>0</v>
       </c>
       <c r="I54" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9322</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -1580,19 +1580,19 @@
         <v>0</v>
       </c>
       <c r="F55" s="15">
-        <v>0</v>
+        <v>550336</v>
       </c>
       <c r="G55" s="15">
-        <v>550336</v>
+        <v>0</v>
       </c>
       <c r="H55" s="15">
         <v>0</v>
       </c>
       <c r="I55" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9322</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1602,7 +1602,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1612,7 +1612,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1622,7 +1622,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>32</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1654,31 +1654,31 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="F61" s="9">
+        <v>500</v>
       </c>
       <c r="G61" s="9">
-        <v>500</v>
+        <v>13242</v>
       </c>
       <c r="H61" s="9">
-        <v>13242</v>
+        <v>0</v>
       </c>
       <c r="I61" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>27</v>
       </c>
@@ -1687,10 +1687,10 @@
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="F62" s="11">
+        <v>0</v>
       </c>
       <c r="G62" s="11">
         <v>0</v>
@@ -1699,12 +1699,12 @@
         <v>0</v>
       </c>
       <c r="I62" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>670778</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
@@ -1712,19 +1712,19 @@
         <v>0</v>
       </c>
       <c r="F63" s="15">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G63" s="15">
-        <v>500</v>
+        <v>13242</v>
       </c>
       <c r="H63" s="15">
-        <v>13242</v>
+        <v>0</v>
       </c>
       <c r="I63" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>670778</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1734,7 +1734,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1744,7 +1744,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1754,7 +1754,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>34</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1786,31 +1786,31 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="F69" s="9">
+        <v>3928423</v>
       </c>
       <c r="G69" s="9">
-        <v>3928423</v>
+        <v>7640696</v>
       </c>
       <c r="H69" s="9">
-        <v>7640696</v>
+        <v>9810711</v>
       </c>
       <c r="I69" s="9">
-        <v>9810711</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27147489</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>27</v>
       </c>
@@ -1819,24 +1819,24 @@
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="F70" s="11">
+        <v>1190013</v>
       </c>
       <c r="G70" s="11">
-        <v>1190013</v>
+        <v>2566203</v>
       </c>
       <c r="H70" s="11">
-        <v>2566203</v>
+        <v>2746528</v>
       </c>
       <c r="I70" s="11">
-        <v>2746528</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7162586</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
@@ -1844,19 +1844,19 @@
         <v>0</v>
       </c>
       <c r="F71" s="15">
-        <v>0</v>
+        <v>5118436</v>
       </c>
       <c r="G71" s="15">
-        <v>5118436</v>
+        <v>10206899</v>
       </c>
       <c r="H71" s="15">
-        <v>10206899</v>
+        <v>12557239</v>
       </c>
       <c r="I71" s="15">
-        <v>12557239</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>34310075</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1866,7 +1866,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1876,7 +1876,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1886,7 +1886,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>35</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1918,31 +1918,31 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="F77" s="9">
+        <v>3915681</v>
       </c>
       <c r="G77" s="9">
-        <v>3915681</v>
+        <v>7653938</v>
       </c>
       <c r="H77" s="9">
-        <v>7653938</v>
+        <v>9810711</v>
       </c>
       <c r="I77" s="9">
-        <v>9810711</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27147489</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>27</v>
       </c>
@@ -1951,24 +1951,24 @@
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="F78" s="11">
+        <v>1190013</v>
       </c>
       <c r="G78" s="11">
-        <v>1190013</v>
+        <v>2566203</v>
       </c>
       <c r="H78" s="11">
-        <v>2566203</v>
+        <v>2746528</v>
       </c>
       <c r="I78" s="11">
-        <v>2746528</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6825845</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
@@ -1976,19 +1976,19 @@
         <v>0</v>
       </c>
       <c r="F79" s="15">
-        <v>0</v>
+        <v>5105694</v>
       </c>
       <c r="G79" s="15">
-        <v>5105694</v>
+        <v>10220141</v>
       </c>
       <c r="H79" s="15">
-        <v>10220141</v>
+        <v>12557239</v>
       </c>
       <c r="I79" s="15">
-        <v>12557239</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>33973334</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -1998,7 +1998,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2008,7 +2008,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2018,7 +2018,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>36</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2050,22 +2050,22 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="F85" s="9">
+        <v>13242</v>
       </c>
       <c r="G85" s="9">
-        <v>13242</v>
+        <v>0</v>
       </c>
       <c r="H85" s="9">
         <v>0</v>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>27</v>
       </c>
@@ -2083,10 +2083,10 @@
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="F86" s="11">
+        <v>0</v>
       </c>
       <c r="G86" s="11">
         <v>0</v>
@@ -2095,12 +2095,12 @@
         <v>0</v>
       </c>
       <c r="I86" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1007519</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
@@ -2108,19 +2108,19 @@
         <v>0</v>
       </c>
       <c r="F87" s="15">
-        <v>0</v>
+        <v>13242</v>
       </c>
       <c r="G87" s="15">
-        <v>13242</v>
+        <v>0</v>
       </c>
       <c r="H87" s="15">
         <v>0</v>
       </c>
       <c r="I87" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1007519</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2130,7 +2130,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2140,7 +2140,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2150,7 +2150,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B91" s="7" t="s">
         <v>37</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2182,41 +2182,55 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C93" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="F93" s="9">
+        <v>15528</v>
       </c>
       <c r="G93" s="9">
-        <v>15528</v>
-      </c>
-      <c r="H93" s="9">
         <v>24062</v>
       </c>
+      <c r="H93" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="I93" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B94" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I94" s="11">
+        <v>77582466</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2226,7 +2240,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2236,97 +2250,97 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B97" s="7" t="s">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B98" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B100" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F100" s="9">
+        <v>20364</v>
+      </c>
+      <c r="G100" s="9">
+        <v>33039</v>
+      </c>
+      <c r="H100" s="9">
+        <v>40850388</v>
+      </c>
+      <c r="I100" s="9">
+        <v>154084</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B101" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I97" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="9">
-        <v>20364</v>
-      </c>
-      <c r="H99" s="9">
-        <v>33039</v>
-      </c>
-      <c r="I99" s="9">
-        <v>40850388</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B100" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C100" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="11">
+      <c r="D101" s="11"/>
+      <c r="E101" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F101" s="11">
         <v>1190013000000</v>
       </c>
-      <c r="H100" s="11">
+      <c r="G101" s="11">
         <v>2566203000000</v>
       </c>
-      <c r="I100" s="11">
+      <c r="H101" s="11">
         <v>2746528000000</v>
       </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I101" s="11">
+        <v>168567132</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2336,7 +2350,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2346,97 +2360,97 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B104" s="7" t="s">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B105" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6" t="s">
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F104" s="6" t="s">
+      <c r="F105" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G104" s="6" t="s">
+      <c r="G105" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H104" s="6" t="s">
+      <c r="H105" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I104" s="6" t="s">
+      <c r="I105" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B106" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C106" s="9" t="s">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B107" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C107" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="9">
+      <c r="D107" s="9"/>
+      <c r="E107" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F107" s="9">
         <v>20353</v>
       </c>
-      <c r="H106" s="9">
+      <c r="G107" s="9">
         <v>33017</v>
       </c>
-      <c r="I106" s="9">
+      <c r="H107" s="9">
         <v>40850388</v>
       </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B107" s="10" t="s">
+      <c r="I107" s="9">
+        <v>154084</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B108" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C107" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F107" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="11">
+      <c r="C108" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F108" s="11">
         <v>1190013000000</v>
       </c>
-      <c r="H107" s="11">
+      <c r="G108" s="11">
         <v>2566203000000</v>
       </c>
-      <c r="I107" s="11">
+      <c r="H108" s="11">
         <v>2746528000000</v>
       </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I108" s="11">
+        <v>163239149</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2446,7 +2460,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2456,83 +2470,97 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B111" s="7" t="s">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+    </row>
+    <row r="112" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B112" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6" t="s">
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F111" s="6" t="s">
+      <c r="F112" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G111" s="6" t="s">
+      <c r="G112" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H111" s="6" t="s">
+      <c r="H112" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I111" s="6" t="s">
+      <c r="I112" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="8" t="s">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B114" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C114" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C113" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F113" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="9">
+      <c r="D114" s="9"/>
+      <c r="E114" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F114" s="9">
         <v>24062</v>
       </c>
-      <c r="H113" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I113" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G114" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I114" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B115" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G115" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H115" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I115" s="11">
+        <v>108079704</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2542,29 +2570,17 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B117" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G117" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H117" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I117" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -2574,58 +2590,46 @@
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B119" s="8" t="s">
+    <row r="119" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B119" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B121" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F119" s="9">
-        <v>0</v>
-      </c>
-      <c r="G119" s="9">
-        <v>0</v>
-      </c>
-      <c r="H119" s="9">
-        <v>0</v>
-      </c>
-      <c r="I119" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B120" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
-      <c r="E120" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F120" s="11">
-        <v>0</v>
-      </c>
-      <c r="G120" s="11">
-        <v>0</v>
-      </c>
-      <c r="H120" s="11">
-        <v>0</v>
-      </c>
-      <c r="I120" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B121" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
-      <c r="E121" s="9" t="s">
-        <v>10</v>
+      <c r="E121" s="9">
+        <v>0</v>
       </c>
       <c r="F121" s="9">
         <v>0</v>
@@ -2640,14 +2644,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C122" s="11"/>
       <c r="D122" s="11"/>
-      <c r="E122" s="11" t="s">
-        <v>10</v>
+      <c r="E122" s="11">
+        <v>0</v>
       </c>
       <c r="F122" s="11">
         <v>0</v>
@@ -2662,14 +2666,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
-      <c r="E123" s="9" t="s">
-        <v>10</v>
+      <c r="E123" s="9">
+        <v>0</v>
       </c>
       <c r="F123" s="9">
         <v>0</v>
@@ -2684,136 +2688,180 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
-      <c r="E124" s="11" t="s">
-        <v>10</v>
+      <c r="E124" s="11">
+        <v>0</v>
       </c>
       <c r="F124" s="11">
-        <v>21871</v>
+        <v>0</v>
       </c>
       <c r="G124" s="11">
-        <v>27426</v>
+        <v>0</v>
       </c>
       <c r="H124" s="11">
-        <v>29863</v>
+        <v>0</v>
       </c>
       <c r="I124" s="11">
-        <v>70194</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
-      <c r="E125" s="9" t="s">
-        <v>10</v>
+      <c r="E125" s="9">
+        <v>0</v>
       </c>
       <c r="F125" s="9">
-        <v>168736</v>
+        <v>0</v>
       </c>
       <c r="G125" s="9">
-        <v>203478</v>
+        <v>0</v>
       </c>
       <c r="H125" s="9">
-        <v>184795</v>
+        <v>0</v>
       </c>
       <c r="I125" s="9">
-        <v>176719</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
-      <c r="E126" s="11" t="s">
-        <v>10</v>
+      <c r="E126" s="11">
+        <v>21871</v>
       </c>
       <c r="F126" s="11">
-        <v>94639</v>
+        <v>27426</v>
       </c>
       <c r="G126" s="11">
-        <v>196147</v>
+        <v>29863</v>
       </c>
       <c r="H126" s="11">
-        <v>176876</v>
+        <v>70194</v>
       </c>
       <c r="I126" s="11">
-        <v>299500</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+        <v>48855</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
-      <c r="E127" s="9" t="s">
-        <v>10</v>
+      <c r="E127" s="9">
+        <v>168736</v>
       </c>
       <c r="F127" s="9">
-        <v>0</v>
+        <v>203478</v>
       </c>
       <c r="G127" s="9">
-        <v>0</v>
+        <v>184795</v>
       </c>
       <c r="H127" s="9">
-        <v>0</v>
+        <v>176719</v>
       </c>
       <c r="I127" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+        <v>250098</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
-      <c r="E128" s="11" t="s">
-        <v>10</v>
+      <c r="E128" s="11">
+        <v>94639</v>
       </c>
       <c r="F128" s="11">
+        <v>196147</v>
+      </c>
+      <c r="G128" s="11">
+        <v>176876</v>
+      </c>
+      <c r="H128" s="11">
+        <v>299500</v>
+      </c>
+      <c r="I128" s="11">
+        <v>624010</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B129" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9">
+        <v>0</v>
+      </c>
+      <c r="F129" s="9">
+        <v>0</v>
+      </c>
+      <c r="G129" s="9">
+        <v>0</v>
+      </c>
+      <c r="H129" s="9">
+        <v>0</v>
+      </c>
+      <c r="I129" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B130" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11">
         <v>42074</v>
       </c>
-      <c r="G128" s="11">
+      <c r="F130" s="11">
         <v>39390</v>
       </c>
-      <c r="H128" s="11">
+      <c r="G130" s="11">
         <v>159302</v>
       </c>
-      <c r="I128" s="11">
+      <c r="H130" s="11">
         <v>407583</v>
       </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B129" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="15">
-        <v>0</v>
-      </c>
-      <c r="F129" s="15">
+      <c r="I130" s="11">
+        <v>470110</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B131" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15">
         <v>327320</v>
       </c>
-      <c r="G129" s="15">
+      <c r="F131" s="15">
         <v>466441</v>
       </c>
-      <c r="H129" s="15">
+      <c r="G131" s="15">
         <v>550836</v>
       </c>
-      <c r="I129" s="15">
+      <c r="H131" s="15">
         <v>953996</v>
+      </c>
+      <c r="I131" s="15">
+        <v>1393073</v>
       </c>
     </row>
   </sheetData>
